--- a/backend/public/files/situacionAcademica.xlsx
+++ b/backend/public/files/situacionAcademica.xlsx
@@ -5,14 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="180230" sheetId="1" r:id="rId1"/>
+    <sheet name="170232" sheetId="1" r:id="rId1"/>
     <sheet name="180230" sheetId="2" r:id="rId2"/>
+    <sheet name="180230" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nombre</t>
   </si>
@@ -29,13 +30,13 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>Victor Hugo</t>
+    <t>moises</t>
   </si>
   <si>
     <t>ITI</t>
   </si>
   <si>
-    <t>primavera 2022</t>
+    <t>2019</t>
   </si>
   <si>
     <t>Analisis del semestre anterior</t>
@@ -56,22 +57,25 @@
     <t>Tiempo dedicado</t>
   </si>
   <si>
-    <t>IA2</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Nucleo 4</t>
-  </si>
-  <si>
-    <t>IA3</t>
-  </si>
-  <si>
-    <t>Nucleo 5</t>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>invierno</t>
+  </si>
+  <si>
+    <t>nucleo optativo</t>
+  </si>
+  <si>
+    <t>facil</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -125,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -144,7 +148,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>180230</v>
+        <v>170232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -193,40 +197,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -234,7 +204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -245,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -261,7 +231,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -277,7 +247,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -302,38 +272,96 @@
         <v>13</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>180230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
